--- a/index_2023.xlsx
+++ b/index_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/Research/populism-index/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_51E9C7BA827C2E0F62355476585DCE3A874E1046" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DDF4AFF-7995-48E1-9EF7-5221E2518010}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_51E9C7BA827C2E0F62355476585DCE3A874E1046" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2E65505-3A9D-4513-AA80-79DB574269E8}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -714,6 +714,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1061,8 +1062,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AD481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A135" sqref="A135:XFD207"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AB285" sqref="AB285:AB381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2298,7 +2299,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>96</v>
       </c>
@@ -2820,7 +2821,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -4374,7 +4375,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -4926,7 +4927,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -6420,7 +6421,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -6972,7 +6973,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="69" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>126</v>
       </c>
@@ -8460,7 +8461,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>96</v>
       </c>
@@ -9012,7 +9013,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="93" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>126</v>
       </c>
@@ -10470,7 +10471,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>96</v>
       </c>
@@ -11022,7 +11023,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="117" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>126</v>
       </c>
@@ -12540,7 +12541,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>96</v>
       </c>
@@ -13092,7 +13093,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="141" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>126</v>
       </c>
@@ -14646,7 +14647,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="159" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>96</v>
       </c>
@@ -15198,7 +15199,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="165" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>126</v>
       </c>
@@ -16752,7 +16753,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="183" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>96</v>
       </c>
@@ -17304,7 +17305,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="189" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>126</v>
       </c>
@@ -18858,7 +18859,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="207" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>96</v>
       </c>
@@ -19374,7 +19375,7 @@
         <v>21.377464975065511</v>
       </c>
     </row>
-    <row r="213" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>126</v>
       </c>
@@ -20928,7 +20929,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="231" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>96</v>
       </c>
@@ -21444,7 +21445,7 @@
         <v>21.638715919928998</v>
       </c>
     </row>
-    <row r="237" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>126</v>
       </c>
@@ -23043,7 +23044,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="255" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>96</v>
       </c>
@@ -23559,7 +23560,7 @@
         <v>22.061912303492381</v>
       </c>
     </row>
-    <row r="261" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>126</v>
       </c>
@@ -25158,7 +25159,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="279" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>96</v>
       </c>
@@ -25674,7 +25675,7 @@
         <v>23.03832692908615</v>
       </c>
     </row>
-    <row r="285" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>126</v>
       </c>
@@ -27273,7 +27274,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="303" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>96</v>
       </c>
@@ -27825,7 +27826,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="309" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>126</v>
       </c>
@@ -29424,7 +29425,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="327" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>96</v>
       </c>
@@ -29976,7 +29977,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="333" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>126</v>
       </c>
@@ -31575,7 +31576,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="351" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>96</v>
       </c>
@@ -32127,7 +32128,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="357" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>126</v>
       </c>
@@ -33690,7 +33691,7 @@
         <v>25.250042094950469</v>
       </c>
     </row>
-    <row r="375" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>96</v>
       </c>
@@ -34242,7 +34243,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="381" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>126</v>
       </c>
@@ -35805,7 +35806,7 @@
         <v>26.255330204163069</v>
       </c>
     </row>
-    <row r="399" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>96</v>
       </c>
@@ -36357,7 +36358,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="405" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>126</v>
       </c>
@@ -37920,7 +37921,7 @@
         <v>25.914216057516981</v>
       </c>
     </row>
-    <row r="423" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>96</v>
       </c>
@@ -39927,7 +39928,7 @@
         <v>25.86421605751698</v>
       </c>
     </row>
-    <row r="447" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>96</v>
       </c>
@@ -41610,7 +41611,7 @@
         <v>26.853716057516991</v>
       </c>
     </row>
-    <row r="471" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>96</v>
       </c>
@@ -42230,8 +42231,13 @@
   <autoFilter ref="A1:AD481" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="Honduras"/>
+        <filter val="Peru"/>
       </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
